--- a/data-raw/standard-population.xlsx
+++ b/data-raw/standard-population.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>10-11</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>seer</t>
+  </si>
+  <si>
+    <t>five_year</t>
   </si>
 </sst>
 </file>
@@ -531,18 +534,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="2" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -553,73 +556,76 @@
         <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -629,7 +635,7 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="1">
@@ -642,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -684,19 +690,22 @@
         <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
         <v>1</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
       </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -706,11 +715,11 @@
       <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
+      <c r="D3" s="6">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -719,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -761,19 +770,22 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
         <v>1</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
       </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
@@ -783,11 +795,11 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
+      <c r="D4" s="6">
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -802,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -838,19 +850,22 @@
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
       </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -860,11 +875,11 @@
       <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
+      <c r="D5" s="6">
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -879,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -915,19 +930,22 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5" s="1">
         <v>1</v>
       </c>
       <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -937,11 +955,11 @@
       <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
-        <v>3</v>
+      <c r="D6" s="6">
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -950,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -992,19 +1010,22 @@
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6" s="1">
         <v>1</v>
       </c>
       <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1014,11 +1035,11 @@
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
+      <c r="D7" s="6">
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1027,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1069,19 +1090,22 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1">
         <v>1</v>
       </c>
       <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1091,11 +1115,11 @@
       <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1104,13 +1128,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1146,19 +1170,22 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" s="1">
         <v>1</v>
       </c>
       <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1168,29 +1195,29 @@
       <c r="C9" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1223,19 +1250,22 @@
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9" s="1">
         <v>1</v>
       </c>
       <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1245,29 +1275,29 @@
       <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1300,19 +1330,22 @@
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X10" s="1">
         <v>1</v>
       </c>
       <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1322,11 +1355,11 @@
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1335,13 +1368,13 @@
         <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1353,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -1380,16 +1413,19 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
         <v>2</v>
       </c>
       <c r="Y11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1399,29 +1435,29 @@
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="1">
-        <v>4</v>
+      <c r="D12" s="6">
+        <v>5</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1439,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -1457,16 +1493,19 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
         <v>2</v>
       </c>
       <c r="Y12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1476,23 +1515,23 @@
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
-        <v>5</v>
+      <c r="D13" s="6">
+        <v>6</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -1504,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -1519,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -1534,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
         <v>2</v>
@@ -1542,8 +1581,11 @@
       <c r="Y13" s="1">
         <v>2</v>
       </c>
+      <c r="Z13" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1553,29 +1595,29 @@
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
-        <v>5</v>
+      <c r="D14" s="6">
+        <v>7</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="1">
         <v>2</v>
@@ -1587,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -1596,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -1611,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
         <v>2</v>
@@ -1619,8 +1661,11 @@
       <c r="Y14" s="1">
         <v>2</v>
       </c>
+      <c r="Z14" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1630,50 +1675,50 @@
       <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
         <v>6</v>
       </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="1">
         <v>2</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -1688,16 +1733,19 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
         <v>2</v>
       </c>
       <c r="Y15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1707,32 +1755,32 @@
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
         <v>6</v>
       </c>
-      <c r="I16" s="1">
-        <v>2</v>
-      </c>
       <c r="J16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" s="1">
         <v>3</v>
@@ -1741,19 +1789,19 @@
         <v>3</v>
       </c>
       <c r="O16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -1765,16 +1813,19 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
         <v>2</v>
       </c>
       <c r="Y16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1784,56 +1835,56 @@
       <c r="C17" s="6">
         <v>11</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
         <v>7</v>
       </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
       </c>
       <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>3</v>
-      </c>
       <c r="J17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="1">
         <v>3</v>
       </c>
       <c r="O17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" s="1">
         <v>2</v>
       </c>
       <c r="Q17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S17" s="1">
         <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -1842,16 +1893,19 @@
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1">
         <v>3</v>
       </c>
       <c r="Y17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1861,32 +1915,32 @@
       <c r="C18" s="6">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>6</v>
       </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>3</v>
-      </c>
       <c r="J18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" s="1">
         <v>4</v>
@@ -1895,40 +1949,43 @@
         <v>4</v>
       </c>
       <c r="O18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P18" s="1">
         <v>2</v>
       </c>
       <c r="Q18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="1">
         <v>2</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
       </c>
       <c r="W18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1">
         <v>3</v>
       </c>
       <c r="Y18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1938,32 +1995,32 @@
       <c r="C19" s="6">
         <v>13</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
         <v>8</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="1">
-        <v>4</v>
-      </c>
       <c r="G19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
         <v>7</v>
       </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
       <c r="J19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" s="1">
         <v>4</v>
@@ -1972,40 +2029,43 @@
         <v>4</v>
       </c>
       <c r="O19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
       </c>
       <c r="Q19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19" s="1">
         <v>2</v>
       </c>
       <c r="T19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>3</v>
       </c>
       <c r="Y19" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2015,74 +2075,77 @@
       <c r="C20" s="6">
         <v>14</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1">
         <v>8</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>7</v>
       </c>
-      <c r="F20" s="1">
-        <v>4</v>
-      </c>
       <c r="G20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
         <v>8</v>
       </c>
-      <c r="I20" s="1">
-        <v>4</v>
-      </c>
       <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
         <v>6</v>
       </c>
-      <c r="K20" s="1">
-        <v>3</v>
-      </c>
       <c r="L20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" s="1">
         <v>5</v>
       </c>
       <c r="O20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20" s="1">
         <v>2</v>
       </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
         <v>3</v>
       </c>
       <c r="Y20" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2092,32 +2155,32 @@
       <c r="C21" s="6">
         <v>15</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="6">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
         <v>9</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>7</v>
       </c>
-      <c r="F21" s="1">
-        <v>5</v>
-      </c>
       <c r="G21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
         <v>8</v>
       </c>
-      <c r="I21" s="1">
-        <v>5</v>
-      </c>
       <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
         <v>6</v>
       </c>
-      <c r="K21" s="1">
-        <v>4</v>
-      </c>
       <c r="L21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" s="1">
         <v>5</v>
@@ -2126,28 +2189,28 @@
         <v>5</v>
       </c>
       <c r="O21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P21" s="1">
         <v>3</v>
       </c>
       <c r="Q21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21" s="1">
         <v>3</v>
       </c>
       <c r="T21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -2158,8 +2221,11 @@
       <c r="Y21" s="1">
         <v>0</v>
       </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -2169,62 +2235,62 @@
       <c r="C22" s="6">
         <v>16</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
         <v>9</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>8</v>
       </c>
-      <c r="F22" s="1">
-        <v>5</v>
-      </c>
       <c r="G22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
         <v>9</v>
       </c>
-      <c r="I22" s="1">
-        <v>5</v>
-      </c>
       <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1">
         <v>7</v>
       </c>
-      <c r="K22" s="1">
-        <v>4</v>
-      </c>
       <c r="L22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N22" s="1">
         <v>6</v>
       </c>
       <c r="O22" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P22" s="1">
         <v>3</v>
       </c>
       <c r="Q22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1">
         <v>3</v>
       </c>
       <c r="T22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -2235,8 +2301,11 @@
       <c r="Y22" s="1">
         <v>0</v>
       </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2246,62 +2315,62 @@
       <c r="C23" s="6">
         <v>17</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="6">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1">
         <v>10</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>8</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>6</v>
       </c>
-      <c r="G23" s="1">
-        <v>5</v>
-      </c>
       <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
         <v>9</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>6</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>7</v>
       </c>
-      <c r="K23" s="1">
-        <v>4</v>
-      </c>
       <c r="L23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N23" s="1">
         <v>6</v>
       </c>
       <c r="O23" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P23" s="1">
         <v>3</v>
       </c>
       <c r="Q23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S23" s="1">
         <v>3</v>
       </c>
       <c r="T23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U23" s="1">
         <v>2</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -2312,8 +2381,11 @@
       <c r="Y23" s="1">
         <v>0</v>
       </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -2323,62 +2395,62 @@
       <c r="C24" s="6">
         <v>18</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>9</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>6</v>
       </c>
-      <c r="G24" s="1">
-        <v>5</v>
-      </c>
       <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1">
         <v>10</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>6</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>8</v>
       </c>
-      <c r="K24" s="1">
-        <v>4</v>
-      </c>
       <c r="L24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N24" s="1">
         <v>7</v>
       </c>
       <c r="O24" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P24" s="1">
         <v>3</v>
       </c>
       <c r="Q24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24" s="1">
         <v>3</v>
       </c>
       <c r="T24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U24" s="1">
         <v>2</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
@@ -2389,8 +2461,11 @@
       <c r="Y24" s="1">
         <v>0</v>
       </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -2400,62 +2475,62 @@
       <c r="C25" s="6">
         <v>19</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="6">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
         <v>11</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>9</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>6</v>
       </c>
-      <c r="G25" s="1">
-        <v>5</v>
-      </c>
       <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
         <v>10</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>6</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>8</v>
       </c>
-      <c r="K25" s="1">
-        <v>4</v>
-      </c>
       <c r="L25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N25" s="1">
         <v>7</v>
       </c>
       <c r="O25" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P25" s="1">
         <v>3</v>
       </c>
       <c r="Q25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25" s="1">
         <v>3</v>
       </c>
       <c r="T25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" s="1">
         <v>2</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
@@ -2464,6 +2539,9 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data-raw/standard-population.xlsx
+++ b/data-raw/standard-population.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>10-11</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>five_year</t>
+  </si>
+  <si>
+    <t>ten_year</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -542,10 +545,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="11.85546875" customWidth="1"/>
+    <col min="2" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -556,76 +559,79 @@
         <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -638,7 +644,7 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="1">
@@ -651,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -693,19 +699,22 @@
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1">
         <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
         <v>0</v>
       </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -716,13 +725,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -731,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -773,19 +782,22 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
         <v>1</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1">
         <v>0</v>
       </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
@@ -796,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -817,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -853,19 +865,22 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
         <v>1</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
       </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -876,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -897,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -933,19 +948,22 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="1">
         <v>1</v>
       </c>
       <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -956,13 +974,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -971,13 +989,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -1013,19 +1031,22 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="1">
         <v>1</v>
       </c>
       <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1036,13 +1057,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1051,13 +1072,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1093,19 +1114,22 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="1">
         <v>1</v>
       </c>
       <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1118,11 +1142,11 @@
       <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1131,13 +1155,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1173,19 +1197,22 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="1">
         <v>1</v>
       </c>
       <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1198,29 +1225,29 @@
       <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1253,19 +1280,22 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="1">
         <v>1</v>
       </c>
       <c r="Z9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1278,29 +1308,29 @@
       <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1333,19 +1363,22 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="1">
         <v>1</v>
       </c>
       <c r="Z10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1358,11 +1391,11 @@
       <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1371,13 +1404,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -1389,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -1416,16 +1449,19 @@
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
         <v>2</v>
       </c>
       <c r="Z11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1436,31 +1472,31 @@
         <v>6</v>
       </c>
       <c r="D12" s="6">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
@@ -1478,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -1496,16 +1532,19 @@
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <v>2</v>
       </c>
       <c r="Z12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1516,25 +1555,25 @@
         <v>7</v>
       </c>
       <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -1546,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -1561,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -1576,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
         <v>2</v>
@@ -1584,8 +1623,11 @@
       <c r="Z13" s="1">
         <v>2</v>
       </c>
+      <c r="AA13" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1596,31 +1638,31 @@
         <v>8</v>
       </c>
       <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
         <v>7</v>
       </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
       </c>
       <c r="I14" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1">
         <v>2</v>
@@ -1632,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="1">
         <v>1</v>
@@ -1641,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -1656,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>2</v>
@@ -1664,8 +1706,11 @@
       <c r="Z14" s="1">
         <v>2</v>
       </c>
+      <c r="AA14" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1676,52 +1721,52 @@
         <v>9</v>
       </c>
       <c r="D15" s="6">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6">
         <v>8</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="1">
         <v>2</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="1">
         <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -1736,16 +1781,19 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>2</v>
       </c>
       <c r="Z15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1756,34 +1804,34 @@
         <v>10</v>
       </c>
       <c r="D16" s="6">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6">
         <v>9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
       <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
         <v>6</v>
       </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
       <c r="K16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="1">
         <v>3</v>
@@ -1792,19 +1840,19 @@
         <v>3</v>
       </c>
       <c r="P16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -1816,16 +1864,19 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>2</v>
       </c>
       <c r="Z16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1836,58 +1887,58 @@
         <v>11</v>
       </c>
       <c r="D17" s="6">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
         <v>10</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>7</v>
       </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
       </c>
       <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="J17" s="1">
-        <v>3</v>
-      </c>
       <c r="K17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O17" s="1">
         <v>3</v>
       </c>
       <c r="P17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
       <c r="R17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17" s="1">
         <v>1</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
@@ -1896,16 +1947,19 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>3</v>
       </c>
       <c r="Z17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1916,34 +1970,34 @@
         <v>12</v>
       </c>
       <c r="D18" s="6">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
         <v>11</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>7</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>6</v>
       </c>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
       <c r="H18" s="1">
         <v>3</v>
       </c>
       <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
         <v>7</v>
       </c>
-      <c r="J18" s="1">
-        <v>3</v>
-      </c>
       <c r="K18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="1">
         <v>4</v>
@@ -1952,40 +2006,43 @@
         <v>4</v>
       </c>
       <c r="P18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="1">
         <v>2</v>
       </c>
       <c r="R18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T18" s="1">
         <v>2</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
         <v>3</v>
       </c>
       <c r="Z18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1996,34 +2053,34 @@
         <v>13</v>
       </c>
       <c r="D19" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6">
         <v>12</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>8</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="1">
-        <v>4</v>
-      </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
         <v>7</v>
       </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
       <c r="K19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="1">
         <v>4</v>
@@ -2032,40 +2089,43 @@
         <v>4</v>
       </c>
       <c r="P19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="1">
         <v>2</v>
       </c>
       <c r="R19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" s="1">
         <v>2</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
         <v>3</v>
       </c>
       <c r="Z19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2076,76 +2136,79 @@
         <v>14</v>
       </c>
       <c r="D20" s="6">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
         <v>13</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>8</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>7</v>
       </c>
-      <c r="G20" s="1">
-        <v>4</v>
-      </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
         <v>8</v>
       </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
       <c r="K20" s="1">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1">
         <v>6</v>
       </c>
-      <c r="L20" s="1">
-        <v>3</v>
-      </c>
       <c r="M20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" s="1">
         <v>5</v>
       </c>
       <c r="P20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T20" s="1">
         <v>2</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
         <v>3</v>
       </c>
       <c r="Z20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2156,34 +2219,34 @@
         <v>15</v>
       </c>
       <c r="D21" s="6">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6">
         <v>14</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>9</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>7</v>
       </c>
-      <c r="G21" s="1">
-        <v>5</v>
-      </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
         <v>8</v>
       </c>
-      <c r="J21" s="1">
-        <v>5</v>
-      </c>
       <c r="K21" s="1">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1">
         <v>6</v>
       </c>
-      <c r="L21" s="1">
-        <v>4</v>
-      </c>
       <c r="M21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" s="1">
         <v>5</v>
@@ -2192,28 +2255,28 @@
         <v>5</v>
       </c>
       <c r="P21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="1">
         <v>3</v>
       </c>
       <c r="R21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T21" s="1">
         <v>3</v>
       </c>
       <c r="U21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="1">
         <v>0</v>
@@ -2224,8 +2287,11 @@
       <c r="Z21" s="1">
         <v>0</v>
       </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -2236,64 +2302,64 @@
         <v>16</v>
       </c>
       <c r="D22" s="6">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6">
         <v>15</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>9</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>8</v>
       </c>
-      <c r="G22" s="1">
-        <v>5</v>
-      </c>
       <c r="H22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
         <v>9</v>
       </c>
-      <c r="J22" s="1">
-        <v>5</v>
-      </c>
       <c r="K22" s="1">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
         <v>7</v>
       </c>
-      <c r="L22" s="1">
-        <v>4</v>
-      </c>
       <c r="M22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O22" s="1">
         <v>6</v>
       </c>
       <c r="P22" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
       </c>
       <c r="R22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T22" s="1">
         <v>3</v>
       </c>
       <c r="U22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="1">
         <v>0</v>
@@ -2304,8 +2370,11 @@
       <c r="Z22" s="1">
         <v>0</v>
       </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2316,64 +2385,64 @@
         <v>17</v>
       </c>
       <c r="D23" s="6">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6">
         <v>16</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>10</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>8</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>6</v>
       </c>
-      <c r="H23" s="1">
-        <v>5</v>
-      </c>
       <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
         <v>9</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>6</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>7</v>
       </c>
-      <c r="L23" s="1">
-        <v>4</v>
-      </c>
       <c r="M23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23" s="1">
         <v>6</v>
       </c>
       <c r="P23" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="1">
         <v>3</v>
       </c>
       <c r="R23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T23" s="1">
         <v>3</v>
       </c>
       <c r="U23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V23" s="1">
         <v>2</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X23" s="1">
         <v>0</v>
@@ -2384,8 +2453,11 @@
       <c r="Z23" s="1">
         <v>0</v>
       </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -2396,64 +2468,64 @@
         <v>18</v>
       </c>
       <c r="D24" s="6">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6">
         <v>17</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>9</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>6</v>
       </c>
-      <c r="H24" s="1">
-        <v>5</v>
-      </c>
       <c r="I24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1">
         <v>10</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>6</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>8</v>
       </c>
-      <c r="L24" s="1">
-        <v>4</v>
-      </c>
       <c r="M24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O24" s="1">
         <v>7</v>
       </c>
       <c r="P24" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="1">
         <v>3</v>
       </c>
       <c r="R24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T24" s="1">
         <v>3</v>
       </c>
       <c r="U24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V24" s="1">
         <v>2</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
@@ -2464,8 +2536,11 @@
       <c r="Z24" s="1">
         <v>0</v>
       </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -2476,64 +2551,64 @@
         <v>19</v>
       </c>
       <c r="D25" s="6">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
         <v>18</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>11</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>9</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>6</v>
       </c>
-      <c r="H25" s="1">
-        <v>5</v>
-      </c>
       <c r="I25" s="1">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1">
         <v>10</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>6</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>8</v>
       </c>
-      <c r="L25" s="1">
-        <v>4</v>
-      </c>
       <c r="M25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O25" s="1">
         <v>7</v>
       </c>
       <c r="P25" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="1">
         <v>3</v>
       </c>
       <c r="R25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T25" s="1">
         <v>3</v>
       </c>
       <c r="U25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25" s="1">
         <v>2</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -2542,6 +2617,9 @@
         <v>0</v>
       </c>
       <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
         <v>0</v>
       </c>
     </row>
